--- a/Zeitplan und Quellenangaben/Zeitplan.xlsx
+++ b/Zeitplan und Quellenangaben/Zeitplan.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lukas\Diplomarbeit\Zeitplan und Quellenangaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomarbeit\Zeitplan und Quellenangaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
     <sheet name="Quellen" sheetId="2" r:id="rId2"/>
+    <sheet name="Lernportalle" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>Rescherschierung Autostart Java Datei am Raspberry</t>
   </si>
@@ -244,6 +245,33 @@
   </si>
   <si>
     <t>Java Timer Recherche (Für Timeout)</t>
+  </si>
+  <si>
+    <t>String Aufbau</t>
+  </si>
+  <si>
+    <t>Zeit in h</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/7/docs/api/java/util/Timer.html</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/tutorial/uiswing/misc/timer.html</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/4044726/how-to-set-a-timer-in-java</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/java/java_string_substring.htm</t>
+  </si>
+  <si>
+    <t>Programmieren InputStream (LRC Vergleich und SwitchCase) und test</t>
   </si>
 </sst>
 </file>
@@ -703,24 +731,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5546875"/>
-    <col min="3" max="3" width="59.21875"/>
-    <col min="4" max="4" width="19"/>
-    <col min="5" max="5" width="13.33203125"/>
-    <col min="6" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="1025" width="10.5546875"/>
+    <col min="1" max="2" width="10.5703125"/>
+    <col min="3" max="3" width="67" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42833</v>
       </c>
@@ -734,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42836</v>
       </c>
@@ -751,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42836</v>
       </c>
@@ -768,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42839</v>
       </c>
@@ -779,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42845</v>
       </c>
@@ -793,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42847</v>
       </c>
@@ -810,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42845</v>
       </c>
@@ -824,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42852</v>
       </c>
@@ -838,7 +874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42852</v>
       </c>
@@ -855,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>42862</v>
       </c>
@@ -869,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>42862</v>
       </c>
@@ -883,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>42862</v>
       </c>
@@ -897,7 +933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>42863</v>
       </c>
@@ -911,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>42863</v>
       </c>
@@ -925,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>42863</v>
       </c>
@@ -939,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>42863</v>
       </c>
@@ -957,10 +993,10 @@
       </c>
       <c r="H17" s="7">
         <f>SUM(B2:B1000001)</f>
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>42866</v>
       </c>
@@ -974,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>42866</v>
       </c>
@@ -988,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>42872</v>
       </c>
@@ -1002,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>42873</v>
       </c>
@@ -1016,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>42886</v>
       </c>
@@ -1030,7 +1066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>42887</v>
       </c>
@@ -1044,7 +1080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>42887</v>
       </c>
@@ -1061,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>42894</v>
       </c>
@@ -1075,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>42908</v>
       </c>
@@ -1089,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>42908</v>
       </c>
@@ -1103,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>42912</v>
       </c>
@@ -1117,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>42913</v>
       </c>
@@ -1131,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>42915</v>
       </c>
@@ -1145,15 +1181,46 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>42915</v>
       </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
       <c r="C31" t="s">
         <v>72</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>42915</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>42915</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1164,219 +1231,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK77"/>
+  <dimension ref="A1:AMK83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="3"/>
-    <col min="3" max="3" width="35.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5546875" style="3"/>
+    <col min="1" max="2" width="11.5703125" style="3"/>
+    <col min="3" max="3" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C35" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
     </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C40" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C44" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" s="8" t="s">
@@ -2405,7 +2472,7 @@
       <c r="AMJ48"/>
       <c r="AMK48"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="D49"/>
@@ -3431,97 +3498,117 @@
       <c r="AMJ49"/>
       <c r="AMK49"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C53" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C57" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C58" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C62" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C63" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C64" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" s="8" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3555,8 +3642,39 @@
     <hyperlink ref="C75" r:id="rId27"/>
     <hyperlink ref="C76" r:id="rId28"/>
     <hyperlink ref="C77" r:id="rId29"/>
+    <hyperlink ref="C81" r:id="rId30"/>
+    <hyperlink ref="C82" r:id="rId31"/>
+    <hyperlink ref="C83" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId30"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId33"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Zeitplan und Quellenangaben/Zeitplan.xlsx
+++ b/Zeitplan und Quellenangaben/Zeitplan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomarbeit\Zeitplan und Quellenangaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\GitHub\Diplomarbeit\Zeitplan und Quellenangaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>Rescherschierung Autostart Java Datei am Raspberry</t>
   </si>
@@ -94,9 +94,6 @@
     <t>http://www.vogella.com/tutorials/MySQLJava/article.html</t>
   </si>
   <si>
-    <t>Erstellen der MySQL Datenbank</t>
-  </si>
-  <si>
     <t>https://dev.mysql.com/downloads/connector/j/5.1.html</t>
   </si>
   <si>
@@ -272,12 +269,45 @@
   </si>
   <si>
     <t>Programmieren InputStream (LRC Vergleich und SwitchCase) und test</t>
+  </si>
+  <si>
+    <t>Einarbeitung Datenbank</t>
+  </si>
+  <si>
+    <t>Datenbank erstellen</t>
+  </si>
+  <si>
+    <t>Datenbank vorhanden</t>
+  </si>
+  <si>
+    <t>Datenbank verbindung Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugfixing und überarbeitung </t>
+  </si>
+  <si>
+    <t>Datenbank überarbeiten</t>
+  </si>
+  <si>
+    <t>http://www2.math.uni-wuppertal.de/~schaefer/jv/haupt/node112.html</t>
+  </si>
+  <si>
+    <t>Datenbank auf Server installiert</t>
+  </si>
+  <si>
+    <t>https://st-page.de/2015/01/27/java-datenbank-auslesen/</t>
+  </si>
+  <si>
+    <t>https://jaxenter.de/mysql-und-java-datenabfrage-8123</t>
+  </si>
+  <si>
+    <t>An Datenbank weiteraarbeiten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -730,33 +760,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5703125"/>
+    <col min="1" max="2" width="10.5546875"/>
     <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="1025" width="10.5703125"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42833</v>
       </c>
@@ -764,13 +794,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42836</v>
       </c>
@@ -787,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42836</v>
       </c>
@@ -804,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42839</v>
       </c>
@@ -815,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42845</v>
       </c>
@@ -823,13 +853,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42847</v>
       </c>
@@ -846,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42845</v>
       </c>
@@ -860,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42852</v>
       </c>
@@ -874,7 +904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42852</v>
       </c>
@@ -891,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>42862</v>
       </c>
@@ -899,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>42862</v>
       </c>
@@ -913,13 +943,13 @@
         <v>0.2</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>42862</v>
       </c>
@@ -927,13 +957,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>42863</v>
       </c>
@@ -941,13 +971,13 @@
         <v>1.5</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>42863</v>
       </c>
@@ -955,13 +985,13 @@
         <v>0.5</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>42863</v>
       </c>
@@ -969,13 +999,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>42863</v>
       </c>
@@ -983,20 +1013,20 @@
         <v>0.5</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <f>SUM(B2:B1000001)</f>
-        <v>44.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM(B2:B1000002)</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>42866</v>
       </c>
@@ -1004,13 +1034,13 @@
         <v>0.5</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>42866</v>
       </c>
@@ -1018,13 +1048,13 @@
         <v>1.5</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>42872</v>
       </c>
@@ -1032,13 +1062,13 @@
         <v>1.4</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>42873</v>
       </c>
@@ -1046,13 +1076,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>42886</v>
       </c>
@@ -1060,13 +1090,13 @@
         <v>0.3</v>
       </c>
       <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>42887</v>
       </c>
@@ -1074,13 +1104,13 @@
         <v>0.5</v>
       </c>
       <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>42887</v>
       </c>
@@ -1088,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -1097,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>42894</v>
       </c>
@@ -1105,13 +1135,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>42908</v>
       </c>
@@ -1119,13 +1149,13 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>42908</v>
       </c>
@@ -1133,13 +1163,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>42912</v>
       </c>
@@ -1147,13 +1177,13 @@
         <v>1.5</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>42913</v>
       </c>
@@ -1161,13 +1191,13 @@
         <v>2.5</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>42915</v>
       </c>
@@ -1175,13 +1205,13 @@
         <v>2.5</v>
       </c>
       <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
         <v>70</v>
       </c>
-      <c r="D30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>42915</v>
       </c>
@@ -1189,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>42915</v>
       </c>
@@ -1203,13 +1233,13 @@
         <v>0.5</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>42915</v>
       </c>
@@ -1217,10 +1247,108 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>42931</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>42982</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>42984</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>42985</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>42990</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>42990</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>42990</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1230,224 +1358,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="3"/>
-    <col min="3" max="3" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="3"/>
+    <col min="1" max="2" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="35.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5"/>
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6"/>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C35" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C36" s="8"/>
     </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="C40" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="C40" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1025" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C44" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1025" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -2472,7 +2600,7 @@
       <c r="AMJ48"/>
       <c r="AMK48"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="D49"/>
@@ -3498,182 +3626,205 @@
       <c r="AMJ49"/>
       <c r="AMK49"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="C53" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="C53" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="C57" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="C57" s="8" t="s">
+    <row r="58" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="C58" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="C58" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="C62" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="C63" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="C64" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="C62" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="C63" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="C64" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="8" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="8" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="8" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="8" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="8" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C81" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="8" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="8" t="s">
-        <v>78</v>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3"/>
-    <hyperlink ref="C30" r:id="rId4"/>
-    <hyperlink ref="C34" r:id="rId5"/>
-    <hyperlink ref="C40" r:id="rId6"/>
-    <hyperlink ref="C35" r:id="rId7"/>
-    <hyperlink ref="C25" r:id="rId8"/>
-    <hyperlink ref="C57" r:id="rId9"/>
-    <hyperlink ref="C58" r:id="rId10" location="server"/>
-    <hyperlink ref="C62" r:id="rId11"/>
-    <hyperlink ref="C63" r:id="rId12"/>
-    <hyperlink ref="C53" r:id="rId13"/>
-    <hyperlink ref="C48" r:id="rId14"/>
-    <hyperlink ref="C44" r:id="rId15"/>
-    <hyperlink ref="C26" r:id="rId16"/>
-    <hyperlink ref="C19" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="C5" r:id="rId20"/>
-    <hyperlink ref="C6" r:id="rId21"/>
-    <hyperlink ref="C64" r:id="rId22"/>
-    <hyperlink ref="C68" r:id="rId23"/>
-    <hyperlink ref="C72" r:id="rId24"/>
-    <hyperlink ref="C73" r:id="rId25"/>
-    <hyperlink ref="C74" r:id="rId26"/>
-    <hyperlink ref="C75" r:id="rId27"/>
-    <hyperlink ref="C76" r:id="rId28"/>
-    <hyperlink ref="C77" r:id="rId29"/>
-    <hyperlink ref="C81" r:id="rId30"/>
-    <hyperlink ref="C82" r:id="rId31"/>
-    <hyperlink ref="C83" r:id="rId32"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C34" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C40" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C35" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C25" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C57" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C58" r:id="rId10" location="server" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C62" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C63" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C53" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C48" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C44" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C26" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="C5" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="C6" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="C64" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="C68" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="C72" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="C73" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="C74" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="C75" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C76" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="C77" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C81" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="C82" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="C83" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="C87" r:id="rId33" xr:uid="{B96CB7BF-A120-444A-959F-67917C529FAE}"/>
+    <hyperlink ref="C88" r:id="rId34" xr:uid="{D1176B57-021D-4AA4-9004-E0D34283C184}"/>
+    <hyperlink ref="C89" r:id="rId35" xr:uid="{CEF2441F-9D70-4341-9AFA-5F59ACF4F1AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId33"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId36"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zeitplan und Quellenangaben/Zeitplan.xlsx
+++ b/Zeitplan und Quellenangaben/Zeitplan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\GitHub\Diplomarbeit\Zeitplan und Quellenangaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomarbeit\Zeitplan und Quellenangaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>Rescherschierung Autostart Java Datei am Raspberry</t>
   </si>
@@ -302,12 +302,27 @@
   </si>
   <si>
     <t>An Datenbank weiteraarbeiten</t>
+  </si>
+  <si>
+    <t>Am Programm weiterarbeiten</t>
+  </si>
+  <si>
+    <t>Server Client Protocol beschreiben</t>
+  </si>
+  <si>
+    <t>Beschreibung vorhanden</t>
+  </si>
+  <si>
+    <t>Protokoll überarbeiten</t>
+  </si>
+  <si>
+    <t>Protokoll vorhanden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,25 +775,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5546875"/>
+    <col min="1" max="2" width="10.5703125"/>
     <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="1025" width="10.5546875"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -786,7 +801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42833</v>
       </c>
@@ -800,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42836</v>
       </c>
@@ -817,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42836</v>
       </c>
@@ -834,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42839</v>
       </c>
@@ -845,7 +860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42845</v>
       </c>
@@ -859,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42847</v>
       </c>
@@ -876,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42845</v>
       </c>
@@ -890,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42852</v>
       </c>
@@ -904,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42852</v>
       </c>
@@ -921,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>42862</v>
       </c>
@@ -935,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>42862</v>
       </c>
@@ -949,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>42862</v>
       </c>
@@ -963,7 +978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>42863</v>
       </c>
@@ -977,7 +992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>42863</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>42863</v>
       </c>
@@ -1005,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>42863</v>
       </c>
@@ -1022,11 +1037,11 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <f>SUM(B2:B1000002)</f>
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <f>SUM(B2:B1000003)</f>
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>42866</v>
       </c>
@@ -1040,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>42866</v>
       </c>
@@ -1054,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>42872</v>
       </c>
@@ -1068,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>42873</v>
       </c>
@@ -1082,7 +1097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>42886</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>42887</v>
       </c>
@@ -1110,7 +1125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>42887</v>
       </c>
@@ -1127,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>42894</v>
       </c>
@@ -1141,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>42908</v>
       </c>
@@ -1155,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>42908</v>
       </c>
@@ -1169,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>42912</v>
       </c>
@@ -1183,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>42913</v>
       </c>
@@ -1197,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>42915</v>
       </c>
@@ -1211,7 +1226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>42915</v>
       </c>
@@ -1225,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>42915</v>
       </c>
@@ -1239,7 +1254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>42915</v>
       </c>
@@ -1253,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>42931</v>
       </c>
@@ -1267,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>42982</v>
       </c>
@@ -1278,7 +1293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>42984</v>
       </c>
@@ -1292,7 +1307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>42985</v>
       </c>
@@ -1309,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>42990</v>
       </c>
@@ -1323,7 +1338,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>42990</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>42990</v>
       </c>
@@ -1349,6 +1364,48 @@
       </c>
       <c r="D40" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>42991</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>42992</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42992</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1358,220 +1415,220 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK89"/>
   <sheetViews>
     <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="3"/>
-    <col min="3" max="3" width="35.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5546875" style="3"/>
+    <col min="1" max="2" width="11.5703125" style="3"/>
+    <col min="3" max="3" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
     </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C40" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C44" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" s="8" t="s">
@@ -2600,7 +2657,7 @@
       <c r="AMJ48"/>
       <c r="AMK48"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="D49"/>
@@ -3626,176 +3683,176 @@
       <c r="AMJ49"/>
       <c r="AMK49"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C53" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C57" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C58" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C63" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C64" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C81" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C82" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C83" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C87" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C89" s="8" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C30" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C34" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C40" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C35" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C25" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C57" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C58" r:id="rId10" location="server" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C62" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C63" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C53" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C48" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="C44" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="C26" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="C19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="C5" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="C6" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="C64" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="C68" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="C72" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="C73" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="C74" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="C75" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="C76" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="C77" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="C81" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="C82" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="C83" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="C87" r:id="rId33" xr:uid="{B96CB7BF-A120-444A-959F-67917C529FAE}"/>
-    <hyperlink ref="C88" r:id="rId34" xr:uid="{D1176B57-021D-4AA4-9004-E0D34283C184}"/>
-    <hyperlink ref="C89" r:id="rId35" xr:uid="{CEF2441F-9D70-4341-9AFA-5F59ACF4F1AC}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C10" r:id="rId3"/>
+    <hyperlink ref="C30" r:id="rId4"/>
+    <hyperlink ref="C34" r:id="rId5"/>
+    <hyperlink ref="C40" r:id="rId6"/>
+    <hyperlink ref="C35" r:id="rId7"/>
+    <hyperlink ref="C25" r:id="rId8"/>
+    <hyperlink ref="C57" r:id="rId9"/>
+    <hyperlink ref="C58" r:id="rId10" location="server"/>
+    <hyperlink ref="C62" r:id="rId11"/>
+    <hyperlink ref="C63" r:id="rId12"/>
+    <hyperlink ref="C53" r:id="rId13"/>
+    <hyperlink ref="C48" r:id="rId14"/>
+    <hyperlink ref="C44" r:id="rId15"/>
+    <hyperlink ref="C26" r:id="rId16"/>
+    <hyperlink ref="C19" r:id="rId17"/>
+    <hyperlink ref="C20" r:id="rId18"/>
+    <hyperlink ref="C21" r:id="rId19"/>
+    <hyperlink ref="C5" r:id="rId20"/>
+    <hyperlink ref="C6" r:id="rId21"/>
+    <hyperlink ref="C64" r:id="rId22"/>
+    <hyperlink ref="C68" r:id="rId23"/>
+    <hyperlink ref="C72" r:id="rId24"/>
+    <hyperlink ref="C73" r:id="rId25"/>
+    <hyperlink ref="C74" r:id="rId26"/>
+    <hyperlink ref="C75" r:id="rId27"/>
+    <hyperlink ref="C76" r:id="rId28"/>
+    <hyperlink ref="C77" r:id="rId29"/>
+    <hyperlink ref="C81" r:id="rId30"/>
+    <hyperlink ref="C82" r:id="rId31"/>
+    <hyperlink ref="C83" r:id="rId32"/>
+    <hyperlink ref="C87" r:id="rId33"/>
+    <hyperlink ref="C88" r:id="rId34"/>
+    <hyperlink ref="C89" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId36"/>
@@ -3803,28 +3860,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zeitplan und Quellenangaben/Zeitplan.xlsx
+++ b/Zeitplan und Quellenangaben/Zeitplan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomarbeit\Zeitplan und Quellenangaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\GitHub\Diplomarbeit\Zeitplan und Quellenangaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>Rescherschierung Autostart Java Datei am Raspberry</t>
   </si>
@@ -317,12 +317,21 @@
   </si>
   <si>
     <t>Protokoll vorhanden</t>
+  </si>
+  <si>
+    <t>Protocol überarbeiten</t>
+  </si>
+  <si>
+    <t>Prtocol vorhanden</t>
+  </si>
+  <si>
+    <t>Protokoll beschreibung in Markdown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,25 +784,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5703125"/>
+    <col min="1" max="2" width="10.5546875"/>
     <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="1025" width="10.5703125"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -801,7 +810,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42833</v>
       </c>
@@ -815,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42836</v>
       </c>
@@ -832,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42836</v>
       </c>
@@ -849,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42839</v>
       </c>
@@ -860,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42845</v>
       </c>
@@ -874,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42847</v>
       </c>
@@ -891,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42845</v>
       </c>
@@ -905,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42852</v>
       </c>
@@ -919,7 +928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42852</v>
       </c>
@@ -936,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>42862</v>
       </c>
@@ -950,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>42862</v>
       </c>
@@ -964,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>42862</v>
       </c>
@@ -978,7 +987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>42863</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>42863</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>42863</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>42863</v>
       </c>
@@ -1038,10 +1047,10 @@
       </c>
       <c r="H17" s="7">
         <f>SUM(B2:B1000003)</f>
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>42866</v>
       </c>
@@ -1055,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>42866</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>42872</v>
       </c>
@@ -1083,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>42873</v>
       </c>
@@ -1097,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>42886</v>
       </c>
@@ -1111,7 +1120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>42887</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>42887</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>42894</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>42908</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>42908</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>42912</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>42913</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>42915</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>42915</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>42915</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>42915</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>42931</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>42982</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>42984</v>
       </c>
@@ -1307,7 +1316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>42985</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>42990</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>42990</v>
       </c>
@@ -1352,7 +1361,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>42990</v>
       </c>
@@ -1366,7 +1375,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>42991</v>
       </c>
@@ -1380,7 +1389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>42992</v>
       </c>
@@ -1394,7 +1403,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42992</v>
       </c>
@@ -1405,6 +1414,34 @@
         <v>93</v>
       </c>
       <c r="D43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>42994</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>42994</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1415,220 +1452,220 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK89"/>
   <sheetViews>
     <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="3"/>
-    <col min="3" max="3" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="3"/>
+    <col min="1" max="2" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="35.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5"/>
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6"/>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C36" s="8"/>
     </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C44" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" s="8" t="s">
@@ -2657,7 +2694,7 @@
       <c r="AMJ48"/>
       <c r="AMK48"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="D49"/>
@@ -3683,176 +3720,176 @@
       <c r="AMJ49"/>
       <c r="AMK49"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C53" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C58" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C63" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C64" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C68" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C72" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C73" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C74" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C75" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C76" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C77" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C81" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C82" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C83" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C87" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C88" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C89" s="8" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3"/>
-    <hyperlink ref="C30" r:id="rId4"/>
-    <hyperlink ref="C34" r:id="rId5"/>
-    <hyperlink ref="C40" r:id="rId6"/>
-    <hyperlink ref="C35" r:id="rId7"/>
-    <hyperlink ref="C25" r:id="rId8"/>
-    <hyperlink ref="C57" r:id="rId9"/>
-    <hyperlink ref="C58" r:id="rId10" location="server"/>
-    <hyperlink ref="C62" r:id="rId11"/>
-    <hyperlink ref="C63" r:id="rId12"/>
-    <hyperlink ref="C53" r:id="rId13"/>
-    <hyperlink ref="C48" r:id="rId14"/>
-    <hyperlink ref="C44" r:id="rId15"/>
-    <hyperlink ref="C26" r:id="rId16"/>
-    <hyperlink ref="C19" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="C5" r:id="rId20"/>
-    <hyperlink ref="C6" r:id="rId21"/>
-    <hyperlink ref="C64" r:id="rId22"/>
-    <hyperlink ref="C68" r:id="rId23"/>
-    <hyperlink ref="C72" r:id="rId24"/>
-    <hyperlink ref="C73" r:id="rId25"/>
-    <hyperlink ref="C74" r:id="rId26"/>
-    <hyperlink ref="C75" r:id="rId27"/>
-    <hyperlink ref="C76" r:id="rId28"/>
-    <hyperlink ref="C77" r:id="rId29"/>
-    <hyperlink ref="C81" r:id="rId30"/>
-    <hyperlink ref="C82" r:id="rId31"/>
-    <hyperlink ref="C83" r:id="rId32"/>
-    <hyperlink ref="C87" r:id="rId33"/>
-    <hyperlink ref="C88" r:id="rId34"/>
-    <hyperlink ref="C89" r:id="rId35"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C34" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C40" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C35" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C25" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C57" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C58" r:id="rId10" location="server" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C62" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C63" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C53" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C48" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C44" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C26" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="C5" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="C6" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="C64" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="C68" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="C72" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="C73" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="C74" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="C75" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C76" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="C77" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C81" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="C82" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="C83" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="C87" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="C88" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="C89" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId36"/>
@@ -3860,28 +3897,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" s="8" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zeitplan und Quellenangaben/Zeitplan.xlsx
+++ b/Zeitplan und Quellenangaben/Zeitplan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\GitHub\Diplomarbeit\Zeitplan und Quellenangaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomarbeit\Zeitplan und Quellenangaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>Rescherschierung Autostart Java Datei am Raspberry</t>
   </si>
@@ -325,7 +325,13 @@
     <t>Prtocol vorhanden</t>
   </si>
   <si>
-    <t>Protokoll beschreibung in Markdown</t>
+    <t xml:space="preserve">Protokoll verwirklichung java </t>
+  </si>
+  <si>
+    <t>Protokoll beschreibung in Markdown (Anfang)</t>
+  </si>
+  <si>
+    <t>Java Programme vorhanden</t>
   </si>
 </sst>
 </file>
@@ -785,24 +791,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5546875"/>
+    <col min="1" max="2" width="10.5703125"/>
     <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="1025" width="10.5546875"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -810,7 +816,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42833</v>
       </c>
@@ -824,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42836</v>
       </c>
@@ -841,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42836</v>
       </c>
@@ -858,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42839</v>
       </c>
@@ -869,7 +875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42845</v>
       </c>
@@ -883,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42847</v>
       </c>
@@ -900,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42845</v>
       </c>
@@ -914,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42852</v>
       </c>
@@ -928,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42852</v>
       </c>
@@ -945,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>42862</v>
       </c>
@@ -959,7 +965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>42862</v>
       </c>
@@ -973,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>42862</v>
       </c>
@@ -987,7 +993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>42863</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>42863</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>42863</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>42863</v>
       </c>
@@ -1047,10 +1053,10 @@
       </c>
       <c r="H17" s="7">
         <f>SUM(B2:B1000003)</f>
-        <v>76.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>42866</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>42866</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>42872</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>42873</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>42886</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>42887</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>42887</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>42894</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>42908</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>42908</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>42912</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>42913</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>42915</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>42915</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>42915</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>42915</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>42931</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>42982</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>42984</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>42985</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>42990</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>42990</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>42990</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>42991</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>42992</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42992</v>
       </c>
@@ -1417,9 +1423,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>42994</v>
+        <v>42993</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -1431,18 +1437,46 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>42994</v>
+        <v>42993</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>42994</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>42995</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1459,213 +1493,213 @@
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="3"/>
-    <col min="3" max="3" width="35.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5546875" style="3"/>
+    <col min="1" max="2" width="11.5703125" style="3"/>
+    <col min="3" max="3" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
     </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C40" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C44" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" s="8" t="s">
@@ -2694,7 +2728,7 @@
       <c r="AMJ48"/>
       <c r="AMK48"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="D49"/>
@@ -3720,135 +3754,135 @@
       <c r="AMJ49"/>
       <c r="AMK49"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C53" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C57" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C58" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C63" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C64" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C81" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C82" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C83" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C87" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C89" s="8" t="s">
         <v>90</v>
       </c>
@@ -3904,14 +3938,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
         <v>79</v>
       </c>

--- a/Zeitplan und Quellenangaben/Zeitplan.xlsx
+++ b/Zeitplan und Quellenangaben/Zeitplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
   <si>
     <t>Rescherschierung Autostart Java Datei am Raspberry</t>
   </si>
@@ -268,9 +268,6 @@
     <t>https://www.tutorialspoint.com/java/java_string_substring.htm</t>
   </si>
   <si>
-    <t>Programmieren InputStream (LRC Vergleich und SwitchCase) und test</t>
-  </si>
-  <si>
     <t>Einarbeitung Datenbank</t>
   </si>
   <si>
@@ -332,6 +329,12 @@
   </si>
   <si>
     <t>Java Programme vorhanden</t>
+  </si>
+  <si>
+    <t>Einarbeitung in Java</t>
+  </si>
+  <si>
+    <t>Programmieren InputStream und test</t>
   </si>
 </sst>
 </file>
@@ -791,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,8 +1055,8 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <f>SUM(B2:B1000003)</f>
-        <v>81.3</v>
+        <f>SUM(B2:B1000004)</f>
+        <v>87.3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1232,7 +1235,7 @@
         <v>42915</v>
       </c>
       <c r="B30" s="2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -1277,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -1285,13 +1288,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>42931</v>
+        <v>42916</v>
       </c>
       <c r="B34" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -1299,58 +1302,58 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>42982</v>
+        <v>42931</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>42984</v>
+        <v>42982</v>
       </c>
       <c r="B36" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>42985</v>
+        <v>42984</v>
       </c>
       <c r="B37" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>42990</v>
+        <v>42985</v>
       </c>
       <c r="B38" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,13 +1361,13 @@
         <v>42990</v>
       </c>
       <c r="B39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1372,41 +1375,41 @@
         <v>42990</v>
       </c>
       <c r="B40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>42991</v>
+        <v>42990</v>
       </c>
       <c r="B41" s="2">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>42992</v>
+        <v>42991</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,27 +1417,27 @@
         <v>42992</v>
       </c>
       <c r="B43" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>42993</v>
+        <v>42992</v>
       </c>
       <c r="B44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1442,18 +1445,18 @@
         <v>42993</v>
       </c>
       <c r="B45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>42994</v>
+        <v>42993</v>
       </c>
       <c r="B46" s="2">
         <v>2</v>
@@ -1462,21 +1465,49 @@
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
+        <v>42994</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <v>42995</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="2">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>42996</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
         <v>101</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3869,22 +3900,22 @@
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C87" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C89" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitplan und Quellenangaben/Zeitplan.xlsx
+++ b/Zeitplan und Quellenangaben/Zeitplan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomarbeit\Zeitplan und Quellenangaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\GitHub\Diplomarbeit\Zeitplan und Quellenangaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t>Rescherschierung Autostart Java Datei am Raspberry</t>
   </si>
@@ -331,10 +331,19 @@
     <t>Java Programme vorhanden</t>
   </si>
   <si>
-    <t>Einarbeitung in Java</t>
-  </si>
-  <si>
     <t>Programmieren InputStream und test</t>
+  </si>
+  <si>
+    <t>Einarbeitung in Json</t>
+  </si>
+  <si>
+    <t>Json in Java verwirklichen</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/json/json_java_example.htm</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/java/json-simple-example-read-and-write-json/</t>
   </si>
 </sst>
 </file>
@@ -794,24 +803,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5703125"/>
+    <col min="1" max="2" width="10.5546875"/>
     <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="1025" width="10.5703125"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -819,7 +828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42833</v>
       </c>
@@ -833,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42836</v>
       </c>
@@ -850,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42836</v>
       </c>
@@ -867,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42839</v>
       </c>
@@ -878,7 +887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42845</v>
       </c>
@@ -892,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42847</v>
       </c>
@@ -909,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42845</v>
       </c>
@@ -923,7 +932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42852</v>
       </c>
@@ -937,7 +946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42852</v>
       </c>
@@ -954,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>42862</v>
       </c>
@@ -968,7 +977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>42862</v>
       </c>
@@ -982,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>42862</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>42863</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>42863</v>
       </c>
@@ -1024,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>42863</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>42863</v>
       </c>
@@ -1056,10 +1065,10 @@
       </c>
       <c r="H17" s="7">
         <f>SUM(B2:B1000004)</f>
-        <v>87.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>42866</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>42866</v>
       </c>
@@ -1087,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>42872</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>42873</v>
       </c>
@@ -1115,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>42886</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>42887</v>
       </c>
@@ -1143,7 +1152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>42887</v>
       </c>
@@ -1160,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>42894</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>42908</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>42908</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>42912</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>42913</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>42915</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>42915</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>42915</v>
       </c>
@@ -1272,7 +1281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>42915</v>
       </c>
@@ -1280,13 +1289,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>42916</v>
       </c>
@@ -1300,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>42931</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>42982</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>42984</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>42985</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>42990</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>42990</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>42990</v>
       </c>
@@ -1398,7 +1407,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>42991</v>
       </c>
@@ -1412,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42992</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>42992</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>42993</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>42993</v>
       </c>
@@ -1468,7 +1477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>42994</v>
       </c>
@@ -1482,7 +1491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>42995</v>
       </c>
@@ -1496,7 +1505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>42996</v>
       </c>
@@ -1504,10 +1513,44 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>42996</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>42997</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1524,213 +1567,213 @@
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="3"/>
-    <col min="3" max="3" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="3"/>
+    <col min="1" max="2" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="35.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5"/>
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6"/>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C36" s="8"/>
     </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C44" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" s="8" t="s">
@@ -2759,7 +2802,7 @@
       <c r="AMJ48"/>
       <c r="AMK48"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="D49"/>
@@ -3785,135 +3828,135 @@
       <c r="AMJ49"/>
       <c r="AMK49"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C53" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C58" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C63" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="C64" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C68" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C72" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C73" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C74" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C75" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C76" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C77" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C81" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C82" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C83" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C87" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C88" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C89" s="8" t="s">
         <v>89</v>
       </c>
@@ -3969,14 +4012,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" s="8" t="s">
         <v>79</v>
       </c>

--- a/Zeitplan und Quellenangaben/Zeitplan.xlsx
+++ b/Zeitplan und Quellenangaben/Zeitplan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\GitHub\Diplomarbeit\Zeitplan und Quellenangaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomarbeit\Zeitplan und Quellenangaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
   <si>
     <t>Rescherschierung Autostart Java Datei am Raspberry</t>
   </si>
@@ -344,6 +344,18 @@
   </si>
   <si>
     <t>https://www.mkyong.com/java/json-simple-example-read-and-write-json/</t>
+  </si>
+  <si>
+    <t>Netbeansplatform für raspberry einrichten</t>
+  </si>
+  <si>
+    <t>Server am Raspberry starten</t>
+  </si>
+  <si>
+    <t>IP Freigeben das man von außen zugreifen kann</t>
+  </si>
+  <si>
+    <t>http://www.javaschubla.de/2007/javaerst0020.html</t>
   </si>
 </sst>
 </file>
@@ -803,24 +815,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5546875"/>
+    <col min="1" max="2" width="10.5703125"/>
     <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="1025" width="10.5546875"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -828,7 +840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42833</v>
       </c>
@@ -842,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42836</v>
       </c>
@@ -859,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42836</v>
       </c>
@@ -876,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42839</v>
       </c>
@@ -887,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42845</v>
       </c>
@@ -901,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42847</v>
       </c>
@@ -918,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42845</v>
       </c>
@@ -932,7 +944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42852</v>
       </c>
@@ -946,7 +958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42852</v>
       </c>
@@ -963,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>42862</v>
       </c>
@@ -977,7 +989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>42862</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>42862</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>42863</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>42863</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>42863</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>42863</v>
       </c>
@@ -1065,10 +1077,10 @@
       </c>
       <c r="H17" s="7">
         <f>SUM(B2:B1000004)</f>
-        <v>91.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>42866</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>42866</v>
       </c>
@@ -1096,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>42872</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>42873</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>42886</v>
       </c>
@@ -1138,7 +1150,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>42887</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>42887</v>
       </c>
@@ -1169,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>42894</v>
       </c>
@@ -1183,7 +1195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>42908</v>
       </c>
@@ -1197,7 +1209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>42908</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>42912</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>42913</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>42915</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>42915</v>
       </c>
@@ -1267,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>42915</v>
       </c>
@@ -1281,7 +1293,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>42915</v>
       </c>
@@ -1295,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>42916</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>42931</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>42982</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>42984</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>42985</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>42990</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>42990</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>42990</v>
       </c>
@@ -1407,7 +1419,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>42991</v>
       </c>
@@ -1421,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42992</v>
       </c>
@@ -1435,7 +1447,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>42992</v>
       </c>
@@ -1449,7 +1461,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>42993</v>
       </c>
@@ -1463,7 +1475,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>42993</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>42994</v>
       </c>
@@ -1491,7 +1503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>42995</v>
       </c>
@@ -1505,7 +1517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>42996</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>42996</v>
       </c>
@@ -1532,14 +1544,8 @@
       <c r="D50" t="s">
         <v>3</v>
       </c>
-      <c r="F50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>42997</v>
       </c>
@@ -1551,6 +1557,39 @@
       </c>
       <c r="D51" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>42999</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>42999</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>42999</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1561,219 +1600,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK89"/>
+  <dimension ref="A1:AMK97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="3"/>
-    <col min="3" max="3" width="35.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5546875" style="3"/>
+    <col min="1" max="2" width="11.5703125" style="3"/>
+    <col min="3" max="3" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
     </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C40" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C44" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" s="8" t="s">
@@ -2802,7 +2841,7 @@
       <c r="AMJ48"/>
       <c r="AMK48"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="D49"/>
@@ -3828,137 +3867,1190 @@
       <c r="AMJ49"/>
       <c r="AMK49"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C53" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C57" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C58" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C63" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C64" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C81" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C82" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C83" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C87" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C88" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="C89" s="8" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+      <c r="C93" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+      <c r="AF94"/>
+      <c r="AG94"/>
+      <c r="AH94"/>
+      <c r="AI94"/>
+      <c r="AJ94"/>
+      <c r="AK94"/>
+      <c r="AL94"/>
+      <c r="AM94"/>
+      <c r="AN94"/>
+      <c r="AO94"/>
+      <c r="AP94"/>
+      <c r="AQ94"/>
+      <c r="AR94"/>
+      <c r="AS94"/>
+      <c r="AT94"/>
+      <c r="AU94"/>
+      <c r="AV94"/>
+      <c r="AW94"/>
+      <c r="AX94"/>
+      <c r="AY94"/>
+      <c r="AZ94"/>
+      <c r="BA94"/>
+      <c r="BB94"/>
+      <c r="BC94"/>
+      <c r="BD94"/>
+      <c r="BE94"/>
+      <c r="BF94"/>
+      <c r="BG94"/>
+      <c r="BH94"/>
+      <c r="BI94"/>
+      <c r="BJ94"/>
+      <c r="BK94"/>
+      <c r="BL94"/>
+      <c r="BM94"/>
+      <c r="BN94"/>
+      <c r="BO94"/>
+      <c r="BP94"/>
+      <c r="BQ94"/>
+      <c r="BR94"/>
+      <c r="BS94"/>
+      <c r="BT94"/>
+      <c r="BU94"/>
+      <c r="BV94"/>
+      <c r="BW94"/>
+      <c r="BX94"/>
+      <c r="BY94"/>
+      <c r="BZ94"/>
+      <c r="CA94"/>
+      <c r="CB94"/>
+      <c r="CC94"/>
+      <c r="CD94"/>
+      <c r="CE94"/>
+      <c r="CF94"/>
+      <c r="CG94"/>
+      <c r="CH94"/>
+      <c r="CI94"/>
+      <c r="CJ94"/>
+      <c r="CK94"/>
+      <c r="CL94"/>
+      <c r="CM94"/>
+      <c r="CN94"/>
+      <c r="CO94"/>
+      <c r="CP94"/>
+      <c r="CQ94"/>
+      <c r="CR94"/>
+      <c r="CS94"/>
+      <c r="CT94"/>
+      <c r="CU94"/>
+      <c r="CV94"/>
+      <c r="CW94"/>
+      <c r="CX94"/>
+      <c r="CY94"/>
+      <c r="CZ94"/>
+      <c r="DA94"/>
+      <c r="DB94"/>
+      <c r="DC94"/>
+      <c r="DD94"/>
+      <c r="DE94"/>
+      <c r="DF94"/>
+      <c r="DG94"/>
+      <c r="DH94"/>
+      <c r="DI94"/>
+      <c r="DJ94"/>
+      <c r="DK94"/>
+      <c r="DL94"/>
+      <c r="DM94"/>
+      <c r="DN94"/>
+      <c r="DO94"/>
+      <c r="DP94"/>
+      <c r="DQ94"/>
+      <c r="DR94"/>
+      <c r="DS94"/>
+      <c r="DT94"/>
+      <c r="DU94"/>
+      <c r="DV94"/>
+      <c r="DW94"/>
+      <c r="DX94"/>
+      <c r="DY94"/>
+      <c r="DZ94"/>
+      <c r="EA94"/>
+      <c r="EB94"/>
+      <c r="EC94"/>
+      <c r="ED94"/>
+      <c r="EE94"/>
+      <c r="EF94"/>
+      <c r="EG94"/>
+      <c r="EH94"/>
+      <c r="EI94"/>
+      <c r="EJ94"/>
+      <c r="EK94"/>
+      <c r="EL94"/>
+      <c r="EM94"/>
+      <c r="EN94"/>
+      <c r="EO94"/>
+      <c r="EP94"/>
+      <c r="EQ94"/>
+      <c r="ER94"/>
+      <c r="ES94"/>
+      <c r="ET94"/>
+      <c r="EU94"/>
+      <c r="EV94"/>
+      <c r="EW94"/>
+      <c r="EX94"/>
+      <c r="EY94"/>
+      <c r="EZ94"/>
+      <c r="FA94"/>
+      <c r="FB94"/>
+      <c r="FC94"/>
+      <c r="FD94"/>
+      <c r="FE94"/>
+      <c r="FF94"/>
+      <c r="FG94"/>
+      <c r="FH94"/>
+      <c r="FI94"/>
+      <c r="FJ94"/>
+      <c r="FK94"/>
+      <c r="FL94"/>
+      <c r="FM94"/>
+      <c r="FN94"/>
+      <c r="FO94"/>
+      <c r="FP94"/>
+      <c r="FQ94"/>
+      <c r="FR94"/>
+      <c r="FS94"/>
+      <c r="FT94"/>
+      <c r="FU94"/>
+      <c r="FV94"/>
+      <c r="FW94"/>
+      <c r="FX94"/>
+      <c r="FY94"/>
+      <c r="FZ94"/>
+      <c r="GA94"/>
+      <c r="GB94"/>
+      <c r="GC94"/>
+      <c r="GD94"/>
+      <c r="GE94"/>
+      <c r="GF94"/>
+      <c r="GG94"/>
+      <c r="GH94"/>
+      <c r="GI94"/>
+      <c r="GJ94"/>
+      <c r="GK94"/>
+      <c r="GL94"/>
+      <c r="GM94"/>
+      <c r="GN94"/>
+      <c r="GO94"/>
+      <c r="GP94"/>
+      <c r="GQ94"/>
+      <c r="GR94"/>
+      <c r="GS94"/>
+      <c r="GT94"/>
+      <c r="GU94"/>
+      <c r="GV94"/>
+      <c r="GW94"/>
+      <c r="GX94"/>
+      <c r="GY94"/>
+      <c r="GZ94"/>
+      <c r="HA94"/>
+      <c r="HB94"/>
+      <c r="HC94"/>
+      <c r="HD94"/>
+      <c r="HE94"/>
+      <c r="HF94"/>
+      <c r="HG94"/>
+      <c r="HH94"/>
+      <c r="HI94"/>
+      <c r="HJ94"/>
+      <c r="HK94"/>
+      <c r="HL94"/>
+      <c r="HM94"/>
+      <c r="HN94"/>
+      <c r="HO94"/>
+      <c r="HP94"/>
+      <c r="HQ94"/>
+      <c r="HR94"/>
+      <c r="HS94"/>
+      <c r="HT94"/>
+      <c r="HU94"/>
+      <c r="HV94"/>
+      <c r="HW94"/>
+      <c r="HX94"/>
+      <c r="HY94"/>
+      <c r="HZ94"/>
+      <c r="IA94"/>
+      <c r="IB94"/>
+      <c r="IC94"/>
+      <c r="ID94"/>
+      <c r="IE94"/>
+      <c r="IF94"/>
+      <c r="IG94"/>
+      <c r="IH94"/>
+      <c r="II94"/>
+      <c r="IJ94"/>
+      <c r="IK94"/>
+      <c r="IL94"/>
+      <c r="IM94"/>
+      <c r="IN94"/>
+      <c r="IO94"/>
+      <c r="IP94"/>
+      <c r="IQ94"/>
+      <c r="IR94"/>
+      <c r="IS94"/>
+      <c r="IT94"/>
+      <c r="IU94"/>
+      <c r="IV94"/>
+      <c r="IW94"/>
+      <c r="IX94"/>
+      <c r="IY94"/>
+      <c r="IZ94"/>
+      <c r="JA94"/>
+      <c r="JB94"/>
+      <c r="JC94"/>
+      <c r="JD94"/>
+      <c r="JE94"/>
+      <c r="JF94"/>
+      <c r="JG94"/>
+      <c r="JH94"/>
+      <c r="JI94"/>
+      <c r="JJ94"/>
+      <c r="JK94"/>
+      <c r="JL94"/>
+      <c r="JM94"/>
+      <c r="JN94"/>
+      <c r="JO94"/>
+      <c r="JP94"/>
+      <c r="JQ94"/>
+      <c r="JR94"/>
+      <c r="JS94"/>
+      <c r="JT94"/>
+      <c r="JU94"/>
+      <c r="JV94"/>
+      <c r="JW94"/>
+      <c r="JX94"/>
+      <c r="JY94"/>
+      <c r="JZ94"/>
+      <c r="KA94"/>
+      <c r="KB94"/>
+      <c r="KC94"/>
+      <c r="KD94"/>
+      <c r="KE94"/>
+      <c r="KF94"/>
+      <c r="KG94"/>
+      <c r="KH94"/>
+      <c r="KI94"/>
+      <c r="KJ94"/>
+      <c r="KK94"/>
+      <c r="KL94"/>
+      <c r="KM94"/>
+      <c r="KN94"/>
+      <c r="KO94"/>
+      <c r="KP94"/>
+      <c r="KQ94"/>
+      <c r="KR94"/>
+      <c r="KS94"/>
+      <c r="KT94"/>
+      <c r="KU94"/>
+      <c r="KV94"/>
+      <c r="KW94"/>
+      <c r="KX94"/>
+      <c r="KY94"/>
+      <c r="KZ94"/>
+      <c r="LA94"/>
+      <c r="LB94"/>
+      <c r="LC94"/>
+      <c r="LD94"/>
+      <c r="LE94"/>
+      <c r="LF94"/>
+      <c r="LG94"/>
+      <c r="LH94"/>
+      <c r="LI94"/>
+      <c r="LJ94"/>
+      <c r="LK94"/>
+      <c r="LL94"/>
+      <c r="LM94"/>
+      <c r="LN94"/>
+      <c r="LO94"/>
+      <c r="LP94"/>
+      <c r="LQ94"/>
+      <c r="LR94"/>
+      <c r="LS94"/>
+      <c r="LT94"/>
+      <c r="LU94"/>
+      <c r="LV94"/>
+      <c r="LW94"/>
+      <c r="LX94"/>
+      <c r="LY94"/>
+      <c r="LZ94"/>
+      <c r="MA94"/>
+      <c r="MB94"/>
+      <c r="MC94"/>
+      <c r="MD94"/>
+      <c r="ME94"/>
+      <c r="MF94"/>
+      <c r="MG94"/>
+      <c r="MH94"/>
+      <c r="MI94"/>
+      <c r="MJ94"/>
+      <c r="MK94"/>
+      <c r="ML94"/>
+      <c r="MM94"/>
+      <c r="MN94"/>
+      <c r="MO94"/>
+      <c r="MP94"/>
+      <c r="MQ94"/>
+      <c r="MR94"/>
+      <c r="MS94"/>
+      <c r="MT94"/>
+      <c r="MU94"/>
+      <c r="MV94"/>
+      <c r="MW94"/>
+      <c r="MX94"/>
+      <c r="MY94"/>
+      <c r="MZ94"/>
+      <c r="NA94"/>
+      <c r="NB94"/>
+      <c r="NC94"/>
+      <c r="ND94"/>
+      <c r="NE94"/>
+      <c r="NF94"/>
+      <c r="NG94"/>
+      <c r="NH94"/>
+      <c r="NI94"/>
+      <c r="NJ94"/>
+      <c r="NK94"/>
+      <c r="NL94"/>
+      <c r="NM94"/>
+      <c r="NN94"/>
+      <c r="NO94"/>
+      <c r="NP94"/>
+      <c r="NQ94"/>
+      <c r="NR94"/>
+      <c r="NS94"/>
+      <c r="NT94"/>
+      <c r="NU94"/>
+      <c r="NV94"/>
+      <c r="NW94"/>
+      <c r="NX94"/>
+      <c r="NY94"/>
+      <c r="NZ94"/>
+      <c r="OA94"/>
+      <c r="OB94"/>
+      <c r="OC94"/>
+      <c r="OD94"/>
+      <c r="OE94"/>
+      <c r="OF94"/>
+      <c r="OG94"/>
+      <c r="OH94"/>
+      <c r="OI94"/>
+      <c r="OJ94"/>
+      <c r="OK94"/>
+      <c r="OL94"/>
+      <c r="OM94"/>
+      <c r="ON94"/>
+      <c r="OO94"/>
+      <c r="OP94"/>
+      <c r="OQ94"/>
+      <c r="OR94"/>
+      <c r="OS94"/>
+      <c r="OT94"/>
+      <c r="OU94"/>
+      <c r="OV94"/>
+      <c r="OW94"/>
+      <c r="OX94"/>
+      <c r="OY94"/>
+      <c r="OZ94"/>
+      <c r="PA94"/>
+      <c r="PB94"/>
+      <c r="PC94"/>
+      <c r="PD94"/>
+      <c r="PE94"/>
+      <c r="PF94"/>
+      <c r="PG94"/>
+      <c r="PH94"/>
+      <c r="PI94"/>
+      <c r="PJ94"/>
+      <c r="PK94"/>
+      <c r="PL94"/>
+      <c r="PM94"/>
+      <c r="PN94"/>
+      <c r="PO94"/>
+      <c r="PP94"/>
+      <c r="PQ94"/>
+      <c r="PR94"/>
+      <c r="PS94"/>
+      <c r="PT94"/>
+      <c r="PU94"/>
+      <c r="PV94"/>
+      <c r="PW94"/>
+      <c r="PX94"/>
+      <c r="PY94"/>
+      <c r="PZ94"/>
+      <c r="QA94"/>
+      <c r="QB94"/>
+      <c r="QC94"/>
+      <c r="QD94"/>
+      <c r="QE94"/>
+      <c r="QF94"/>
+      <c r="QG94"/>
+      <c r="QH94"/>
+      <c r="QI94"/>
+      <c r="QJ94"/>
+      <c r="QK94"/>
+      <c r="QL94"/>
+      <c r="QM94"/>
+      <c r="QN94"/>
+      <c r="QO94"/>
+      <c r="QP94"/>
+      <c r="QQ94"/>
+      <c r="QR94"/>
+      <c r="QS94"/>
+      <c r="QT94"/>
+      <c r="QU94"/>
+      <c r="QV94"/>
+      <c r="QW94"/>
+      <c r="QX94"/>
+      <c r="QY94"/>
+      <c r="QZ94"/>
+      <c r="RA94"/>
+      <c r="RB94"/>
+      <c r="RC94"/>
+      <c r="RD94"/>
+      <c r="RE94"/>
+      <c r="RF94"/>
+      <c r="RG94"/>
+      <c r="RH94"/>
+      <c r="RI94"/>
+      <c r="RJ94"/>
+      <c r="RK94"/>
+      <c r="RL94"/>
+      <c r="RM94"/>
+      <c r="RN94"/>
+      <c r="RO94"/>
+      <c r="RP94"/>
+      <c r="RQ94"/>
+      <c r="RR94"/>
+      <c r="RS94"/>
+      <c r="RT94"/>
+      <c r="RU94"/>
+      <c r="RV94"/>
+      <c r="RW94"/>
+      <c r="RX94"/>
+      <c r="RY94"/>
+      <c r="RZ94"/>
+      <c r="SA94"/>
+      <c r="SB94"/>
+      <c r="SC94"/>
+      <c r="SD94"/>
+      <c r="SE94"/>
+      <c r="SF94"/>
+      <c r="SG94"/>
+      <c r="SH94"/>
+      <c r="SI94"/>
+      <c r="SJ94"/>
+      <c r="SK94"/>
+      <c r="SL94"/>
+      <c r="SM94"/>
+      <c r="SN94"/>
+      <c r="SO94"/>
+      <c r="SP94"/>
+      <c r="SQ94"/>
+      <c r="SR94"/>
+      <c r="SS94"/>
+      <c r="ST94"/>
+      <c r="SU94"/>
+      <c r="SV94"/>
+      <c r="SW94"/>
+      <c r="SX94"/>
+      <c r="SY94"/>
+      <c r="SZ94"/>
+      <c r="TA94"/>
+      <c r="TB94"/>
+      <c r="TC94"/>
+      <c r="TD94"/>
+      <c r="TE94"/>
+      <c r="TF94"/>
+      <c r="TG94"/>
+      <c r="TH94"/>
+      <c r="TI94"/>
+      <c r="TJ94"/>
+      <c r="TK94"/>
+      <c r="TL94"/>
+      <c r="TM94"/>
+      <c r="TN94"/>
+      <c r="TO94"/>
+      <c r="TP94"/>
+      <c r="TQ94"/>
+      <c r="TR94"/>
+      <c r="TS94"/>
+      <c r="TT94"/>
+      <c r="TU94"/>
+      <c r="TV94"/>
+      <c r="TW94"/>
+      <c r="TX94"/>
+      <c r="TY94"/>
+      <c r="TZ94"/>
+      <c r="UA94"/>
+      <c r="UB94"/>
+      <c r="UC94"/>
+      <c r="UD94"/>
+      <c r="UE94"/>
+      <c r="UF94"/>
+      <c r="UG94"/>
+      <c r="UH94"/>
+      <c r="UI94"/>
+      <c r="UJ94"/>
+      <c r="UK94"/>
+      <c r="UL94"/>
+      <c r="UM94"/>
+      <c r="UN94"/>
+      <c r="UO94"/>
+      <c r="UP94"/>
+      <c r="UQ94"/>
+      <c r="UR94"/>
+      <c r="US94"/>
+      <c r="UT94"/>
+      <c r="UU94"/>
+      <c r="UV94"/>
+      <c r="UW94"/>
+      <c r="UX94"/>
+      <c r="UY94"/>
+      <c r="UZ94"/>
+      <c r="VA94"/>
+      <c r="VB94"/>
+      <c r="VC94"/>
+      <c r="VD94"/>
+      <c r="VE94"/>
+      <c r="VF94"/>
+      <c r="VG94"/>
+      <c r="VH94"/>
+      <c r="VI94"/>
+      <c r="VJ94"/>
+      <c r="VK94"/>
+      <c r="VL94"/>
+      <c r="VM94"/>
+      <c r="VN94"/>
+      <c r="VO94"/>
+      <c r="VP94"/>
+      <c r="VQ94"/>
+      <c r="VR94"/>
+      <c r="VS94"/>
+      <c r="VT94"/>
+      <c r="VU94"/>
+      <c r="VV94"/>
+      <c r="VW94"/>
+      <c r="VX94"/>
+      <c r="VY94"/>
+      <c r="VZ94"/>
+      <c r="WA94"/>
+      <c r="WB94"/>
+      <c r="WC94"/>
+      <c r="WD94"/>
+      <c r="WE94"/>
+      <c r="WF94"/>
+      <c r="WG94"/>
+      <c r="WH94"/>
+      <c r="WI94"/>
+      <c r="WJ94"/>
+      <c r="WK94"/>
+      <c r="WL94"/>
+      <c r="WM94"/>
+      <c r="WN94"/>
+      <c r="WO94"/>
+      <c r="WP94"/>
+      <c r="WQ94"/>
+      <c r="WR94"/>
+      <c r="WS94"/>
+      <c r="WT94"/>
+      <c r="WU94"/>
+      <c r="WV94"/>
+      <c r="WW94"/>
+      <c r="WX94"/>
+      <c r="WY94"/>
+      <c r="WZ94"/>
+      <c r="XA94"/>
+      <c r="XB94"/>
+      <c r="XC94"/>
+      <c r="XD94"/>
+      <c r="XE94"/>
+      <c r="XF94"/>
+      <c r="XG94"/>
+      <c r="XH94"/>
+      <c r="XI94"/>
+      <c r="XJ94"/>
+      <c r="XK94"/>
+      <c r="XL94"/>
+      <c r="XM94"/>
+      <c r="XN94"/>
+      <c r="XO94"/>
+      <c r="XP94"/>
+      <c r="XQ94"/>
+      <c r="XR94"/>
+      <c r="XS94"/>
+      <c r="XT94"/>
+      <c r="XU94"/>
+      <c r="XV94"/>
+      <c r="XW94"/>
+      <c r="XX94"/>
+      <c r="XY94"/>
+      <c r="XZ94"/>
+      <c r="YA94"/>
+      <c r="YB94"/>
+      <c r="YC94"/>
+      <c r="YD94"/>
+      <c r="YE94"/>
+      <c r="YF94"/>
+      <c r="YG94"/>
+      <c r="YH94"/>
+      <c r="YI94"/>
+      <c r="YJ94"/>
+      <c r="YK94"/>
+      <c r="YL94"/>
+      <c r="YM94"/>
+      <c r="YN94"/>
+      <c r="YO94"/>
+      <c r="YP94"/>
+      <c r="YQ94"/>
+      <c r="YR94"/>
+      <c r="YS94"/>
+      <c r="YT94"/>
+      <c r="YU94"/>
+      <c r="YV94"/>
+      <c r="YW94"/>
+      <c r="YX94"/>
+      <c r="YY94"/>
+      <c r="YZ94"/>
+      <c r="ZA94"/>
+      <c r="ZB94"/>
+      <c r="ZC94"/>
+      <c r="ZD94"/>
+      <c r="ZE94"/>
+      <c r="ZF94"/>
+      <c r="ZG94"/>
+      <c r="ZH94"/>
+      <c r="ZI94"/>
+      <c r="ZJ94"/>
+      <c r="ZK94"/>
+      <c r="ZL94"/>
+      <c r="ZM94"/>
+      <c r="ZN94"/>
+      <c r="ZO94"/>
+      <c r="ZP94"/>
+      <c r="ZQ94"/>
+      <c r="ZR94"/>
+      <c r="ZS94"/>
+      <c r="ZT94"/>
+      <c r="ZU94"/>
+      <c r="ZV94"/>
+      <c r="ZW94"/>
+      <c r="ZX94"/>
+      <c r="ZY94"/>
+      <c r="ZZ94"/>
+      <c r="AAA94"/>
+      <c r="AAB94"/>
+      <c r="AAC94"/>
+      <c r="AAD94"/>
+      <c r="AAE94"/>
+      <c r="AAF94"/>
+      <c r="AAG94"/>
+      <c r="AAH94"/>
+      <c r="AAI94"/>
+      <c r="AAJ94"/>
+      <c r="AAK94"/>
+      <c r="AAL94"/>
+      <c r="AAM94"/>
+      <c r="AAN94"/>
+      <c r="AAO94"/>
+      <c r="AAP94"/>
+      <c r="AAQ94"/>
+      <c r="AAR94"/>
+      <c r="AAS94"/>
+      <c r="AAT94"/>
+      <c r="AAU94"/>
+      <c r="AAV94"/>
+      <c r="AAW94"/>
+      <c r="AAX94"/>
+      <c r="AAY94"/>
+      <c r="AAZ94"/>
+      <c r="ABA94"/>
+      <c r="ABB94"/>
+      <c r="ABC94"/>
+      <c r="ABD94"/>
+      <c r="ABE94"/>
+      <c r="ABF94"/>
+      <c r="ABG94"/>
+      <c r="ABH94"/>
+      <c r="ABI94"/>
+      <c r="ABJ94"/>
+      <c r="ABK94"/>
+      <c r="ABL94"/>
+      <c r="ABM94"/>
+      <c r="ABN94"/>
+      <c r="ABO94"/>
+      <c r="ABP94"/>
+      <c r="ABQ94"/>
+      <c r="ABR94"/>
+      <c r="ABS94"/>
+      <c r="ABT94"/>
+      <c r="ABU94"/>
+      <c r="ABV94"/>
+      <c r="ABW94"/>
+      <c r="ABX94"/>
+      <c r="ABY94"/>
+      <c r="ABZ94"/>
+      <c r="ACA94"/>
+      <c r="ACB94"/>
+      <c r="ACC94"/>
+      <c r="ACD94"/>
+      <c r="ACE94"/>
+      <c r="ACF94"/>
+      <c r="ACG94"/>
+      <c r="ACH94"/>
+      <c r="ACI94"/>
+      <c r="ACJ94"/>
+      <c r="ACK94"/>
+      <c r="ACL94"/>
+      <c r="ACM94"/>
+      <c r="ACN94"/>
+      <c r="ACO94"/>
+      <c r="ACP94"/>
+      <c r="ACQ94"/>
+      <c r="ACR94"/>
+      <c r="ACS94"/>
+      <c r="ACT94"/>
+      <c r="ACU94"/>
+      <c r="ACV94"/>
+      <c r="ACW94"/>
+      <c r="ACX94"/>
+      <c r="ACY94"/>
+      <c r="ACZ94"/>
+      <c r="ADA94"/>
+      <c r="ADB94"/>
+      <c r="ADC94"/>
+      <c r="ADD94"/>
+      <c r="ADE94"/>
+      <c r="ADF94"/>
+      <c r="ADG94"/>
+      <c r="ADH94"/>
+      <c r="ADI94"/>
+      <c r="ADJ94"/>
+      <c r="ADK94"/>
+      <c r="ADL94"/>
+      <c r="ADM94"/>
+      <c r="ADN94"/>
+      <c r="ADO94"/>
+      <c r="ADP94"/>
+      <c r="ADQ94"/>
+      <c r="ADR94"/>
+      <c r="ADS94"/>
+      <c r="ADT94"/>
+      <c r="ADU94"/>
+      <c r="ADV94"/>
+      <c r="ADW94"/>
+      <c r="ADX94"/>
+      <c r="ADY94"/>
+      <c r="ADZ94"/>
+      <c r="AEA94"/>
+      <c r="AEB94"/>
+      <c r="AEC94"/>
+      <c r="AED94"/>
+      <c r="AEE94"/>
+      <c r="AEF94"/>
+      <c r="AEG94"/>
+      <c r="AEH94"/>
+      <c r="AEI94"/>
+      <c r="AEJ94"/>
+      <c r="AEK94"/>
+      <c r="AEL94"/>
+      <c r="AEM94"/>
+      <c r="AEN94"/>
+      <c r="AEO94"/>
+      <c r="AEP94"/>
+      <c r="AEQ94"/>
+      <c r="AER94"/>
+      <c r="AES94"/>
+      <c r="AET94"/>
+      <c r="AEU94"/>
+      <c r="AEV94"/>
+      <c r="AEW94"/>
+      <c r="AEX94"/>
+      <c r="AEY94"/>
+      <c r="AEZ94"/>
+      <c r="AFA94"/>
+      <c r="AFB94"/>
+      <c r="AFC94"/>
+      <c r="AFD94"/>
+      <c r="AFE94"/>
+      <c r="AFF94"/>
+      <c r="AFG94"/>
+      <c r="AFH94"/>
+      <c r="AFI94"/>
+      <c r="AFJ94"/>
+      <c r="AFK94"/>
+      <c r="AFL94"/>
+      <c r="AFM94"/>
+      <c r="AFN94"/>
+      <c r="AFO94"/>
+      <c r="AFP94"/>
+      <c r="AFQ94"/>
+      <c r="AFR94"/>
+      <c r="AFS94"/>
+      <c r="AFT94"/>
+      <c r="AFU94"/>
+      <c r="AFV94"/>
+      <c r="AFW94"/>
+      <c r="AFX94"/>
+      <c r="AFY94"/>
+      <c r="AFZ94"/>
+      <c r="AGA94"/>
+      <c r="AGB94"/>
+      <c r="AGC94"/>
+      <c r="AGD94"/>
+      <c r="AGE94"/>
+      <c r="AGF94"/>
+      <c r="AGG94"/>
+      <c r="AGH94"/>
+      <c r="AGI94"/>
+      <c r="AGJ94"/>
+      <c r="AGK94"/>
+      <c r="AGL94"/>
+      <c r="AGM94"/>
+      <c r="AGN94"/>
+      <c r="AGO94"/>
+      <c r="AGP94"/>
+      <c r="AGQ94"/>
+      <c r="AGR94"/>
+      <c r="AGS94"/>
+      <c r="AGT94"/>
+      <c r="AGU94"/>
+      <c r="AGV94"/>
+      <c r="AGW94"/>
+      <c r="AGX94"/>
+      <c r="AGY94"/>
+      <c r="AGZ94"/>
+      <c r="AHA94"/>
+      <c r="AHB94"/>
+      <c r="AHC94"/>
+      <c r="AHD94"/>
+      <c r="AHE94"/>
+      <c r="AHF94"/>
+      <c r="AHG94"/>
+      <c r="AHH94"/>
+      <c r="AHI94"/>
+      <c r="AHJ94"/>
+      <c r="AHK94"/>
+      <c r="AHL94"/>
+      <c r="AHM94"/>
+      <c r="AHN94"/>
+      <c r="AHO94"/>
+      <c r="AHP94"/>
+      <c r="AHQ94"/>
+      <c r="AHR94"/>
+      <c r="AHS94"/>
+      <c r="AHT94"/>
+      <c r="AHU94"/>
+      <c r="AHV94"/>
+      <c r="AHW94"/>
+      <c r="AHX94"/>
+      <c r="AHY94"/>
+      <c r="AHZ94"/>
+      <c r="AIA94"/>
+      <c r="AIB94"/>
+      <c r="AIC94"/>
+      <c r="AID94"/>
+      <c r="AIE94"/>
+      <c r="AIF94"/>
+      <c r="AIG94"/>
+      <c r="AIH94"/>
+      <c r="AII94"/>
+      <c r="AIJ94"/>
+      <c r="AIK94"/>
+      <c r="AIL94"/>
+      <c r="AIM94"/>
+      <c r="AIN94"/>
+      <c r="AIO94"/>
+      <c r="AIP94"/>
+      <c r="AIQ94"/>
+      <c r="AIR94"/>
+      <c r="AIS94"/>
+      <c r="AIT94"/>
+      <c r="AIU94"/>
+      <c r="AIV94"/>
+      <c r="AIW94"/>
+      <c r="AIX94"/>
+      <c r="AIY94"/>
+      <c r="AIZ94"/>
+      <c r="AJA94"/>
+      <c r="AJB94"/>
+      <c r="AJC94"/>
+      <c r="AJD94"/>
+      <c r="AJE94"/>
+      <c r="AJF94"/>
+      <c r="AJG94"/>
+      <c r="AJH94"/>
+      <c r="AJI94"/>
+      <c r="AJJ94"/>
+      <c r="AJK94"/>
+      <c r="AJL94"/>
+      <c r="AJM94"/>
+      <c r="AJN94"/>
+      <c r="AJO94"/>
+      <c r="AJP94"/>
+      <c r="AJQ94"/>
+      <c r="AJR94"/>
+      <c r="AJS94"/>
+      <c r="AJT94"/>
+      <c r="AJU94"/>
+      <c r="AJV94"/>
+      <c r="AJW94"/>
+      <c r="AJX94"/>
+      <c r="AJY94"/>
+      <c r="AJZ94"/>
+      <c r="AKA94"/>
+      <c r="AKB94"/>
+      <c r="AKC94"/>
+      <c r="AKD94"/>
+      <c r="AKE94"/>
+      <c r="AKF94"/>
+      <c r="AKG94"/>
+      <c r="AKH94"/>
+      <c r="AKI94"/>
+      <c r="AKJ94"/>
+      <c r="AKK94"/>
+      <c r="AKL94"/>
+      <c r="AKM94"/>
+      <c r="AKN94"/>
+      <c r="AKO94"/>
+      <c r="AKP94"/>
+      <c r="AKQ94"/>
+      <c r="AKR94"/>
+      <c r="AKS94"/>
+      <c r="AKT94"/>
+      <c r="AKU94"/>
+      <c r="AKV94"/>
+      <c r="AKW94"/>
+      <c r="AKX94"/>
+      <c r="AKY94"/>
+      <c r="AKZ94"/>
+      <c r="ALA94"/>
+      <c r="ALB94"/>
+      <c r="ALC94"/>
+      <c r="ALD94"/>
+      <c r="ALE94"/>
+      <c r="ALF94"/>
+      <c r="ALG94"/>
+      <c r="ALH94"/>
+      <c r="ALI94"/>
+      <c r="ALJ94"/>
+      <c r="ALK94"/>
+      <c r="ALL94"/>
+      <c r="ALM94"/>
+      <c r="ALN94"/>
+      <c r="ALO94"/>
+      <c r="ALP94"/>
+      <c r="ALQ94"/>
+      <c r="ALR94"/>
+      <c r="ALS94"/>
+      <c r="ALT94"/>
+      <c r="ALU94"/>
+      <c r="ALV94"/>
+      <c r="ALW94"/>
+      <c r="ALX94"/>
+      <c r="ALY94"/>
+      <c r="ALZ94"/>
+      <c r="AMA94"/>
+      <c r="AMB94"/>
+      <c r="AMC94"/>
+      <c r="AMD94"/>
+      <c r="AME94"/>
+      <c r="AMF94"/>
+      <c r="AMG94"/>
+      <c r="AMH94"/>
+      <c r="AMI94"/>
+      <c r="AMJ94"/>
+      <c r="AMK94"/>
+    </row>
+    <row r="96" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3998,9 +5090,12 @@
     <hyperlink ref="C87" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="C88" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
     <hyperlink ref="C89" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="C97" r:id="rId36" xr:uid="{F1E58B74-6906-48F1-AC9F-C18AC7D1F7DD}"/>
+    <hyperlink ref="C93" r:id="rId37" xr:uid="{DCC380AA-ABA1-453C-B968-2EC3B5333BB0}"/>
+    <hyperlink ref="C94" r:id="rId38" xr:uid="{5F775C68-D45B-4871-89CD-A86B00FA20DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId36"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -4012,14 +5107,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
         <v>79</v>
       </c>
